--- a/data/userData.xlsx
+++ b/data/userData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741B6C2-C42A-44AA-8FF3-9F2C7A87BBDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="5325" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="判断用户身份" sheetId="13" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="查看轻盈合同范本" sheetId="23" r:id="rId6"/>
     <sheet name="查看新月盈新众盈合同范本" sheetId="24" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -366,8 +367,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,8 +557,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -573,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,6 +649,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -683,6 +701,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -858,22 +893,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -890,7 +925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -907,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -924,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -941,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -958,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -975,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1077,23 +1112,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="D18" s="8"/>
     </row>
@@ -1105,21 +1140,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1152,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1163,21 +1198,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
@@ -1188,23 +1223,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1272,23 +1307,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
@@ -1298,21 +1333,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1334,14 +1369,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
     </row>
   </sheetData>
@@ -1352,23 +1387,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
+    <col min="5" max="6" width="13.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1428,7 +1463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1503,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1508,10 +1543,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
@@ -1521,21 +1556,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1568,18 +1603,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
     </row>
   </sheetData>
@@ -1590,21 +1625,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>43</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1703,7 +1738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
